--- a/data/trans_orig/P79A4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9849</v>
+        <v>9868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3425309579764489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0800313158579095</v>
+        <v>0.08049116030077436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8312882723720387</v>
+        <v>0.832884619341335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>4049</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1568</v>
+        <v>1522</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>5660</v>
@@ -771,7 +771,7 @@
         <v>0.7154225207147124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2770638231269276</v>
+        <v>0.2689892861415861</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>8108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2943</v>
+        <v>3186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13635</v>
+        <v>14190</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4630819868537415</v>
+        <v>0.4630819868537416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1680750904421689</v>
+        <v>0.1819851103346885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7787696051336885</v>
+        <v>0.8104975773497194</v>
       </c>
     </row>
     <row r="5">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3908</v>
+        <v>4124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2845774792852875</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6905413859841439</v>
+        <v>0.7285615882700339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>9400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3873</v>
+        <v>3318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14565</v>
+        <v>14322</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5369180131462583</v>
+        <v>0.5369180131462585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2212303948663114</v>
+        <v>0.1895024226502807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.831924909557831</v>
+        <v>0.8180148896653116</v>
       </c>
     </row>
     <row r="6">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3212</v>
+        <v>3189</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2200215869710642</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8133876735765128</v>
+        <v>0.8075182361033337</v>
       </c>
     </row>
     <row r="11">
@@ -1775,19 +1775,19 @@
         <v>8704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -1796,19 +1796,19 @@
         <v>9714</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -1817,19 +1817,19 @@
         <v>18417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="23">
@@ -1846,19 +1846,19 @@
         <v>10041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -1867,19 +1867,19 @@
         <v>2439</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -1888,19 +1888,19 @@
         <v>12481</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="24">
